--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinicius Dias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2FFEAA-04CA-4F42-85E0-E5261CC3FF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DEE7A-AA09-4D0C-A8C3-E09F2D7C2DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63AE1896-668B-4BE7-A2E9-32007E47FE46}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
